--- a/Atalhos/4.xlsx
+++ b/Atalhos/4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10-2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -868,6 +868,34 @@
         <family val="1"/>
       </rPr>
       <t>guinte e exibe seu menu ou sua mensagem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Comando</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Atalho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Descrição</t>
     </r>
   </si>
 </sst>
@@ -930,13 +958,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,8 +1263,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
